--- a/biology/Botanique/Lycope_d'Europe/Lycope_d'Europe.xlsx
+++ b/biology/Botanique/Lycope_d'Europe/Lycope_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lycope_d%27Europe</t>
+          <t>Lycope_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopus europaeus
 Le Lycope d'Europe (Lycopus europaeus), appelé aussi « Chanvre d'eau » ou « Patte-de-loup », est une espèce de plantes herbacées vivaces de la famille des Lamiacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lycope_d%27Europe</t>
+          <t>Lycope_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Lycopus, du grec lykos (loup) et pous (pied), soit « pied de loup », fait référence à la forme des feuilles.
-Noms vernaculaires
-Chanvre d'eau, pied de loup, patte de loup, marrube aquatique, ortie d'eau, lance du Christ, herbe des Égyptiens, crumène, crumièvre.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lycopus, du grec lykos (loup) et pous (pied), soit « pied de loup », fait référence à la forme des feuilles.
 </t>
         </is>
       </c>
@@ -529,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lycope_d%27Europe</t>
+          <t>Lycope_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chanvre d'eau, pied de loup, patte de loup, marrube aquatique, ortie d'eau, lance du Christ, herbe des Égyptiens, crumène, crumièvre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lycope_d'Europe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycope_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lycope d'Europe est une plante herbacée vivace, non aromatique, pouvant atteindre de 30 centimètres à un mètre de haut, voire 1,20 m, à souche rampante et à tiges dressées à section carrée, marquée d'un sillon sur chacune des faces. La plante est glabre ou légèrement pubescente. La plante est vivace par sa souche qui produit de nombreux stolons. C'est une hélophyte-hémicryptophyte (cf. Classification de Raunkier).
 Les feuilles, généralement de couleur verte, opposées-décussées, ont un limbe de forme ovale-lancéolée à pointe aiguë et profondément denté, et même parfois divisé à la base pour les feuilles inférieures. Le pétiole est court, voire absent pour les feuilles supérieures.
@@ -557,45 +611,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lycope_d%27Europe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lycope_d%27Europe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distribution et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est commune dans les régions tempérées et circumboréales d'Europe, d'Asie et d'Afrique du Nord. Elle s'est naturalisée en Amérique du Nord.
-C'est une espèce de plaine (jusqu'à 100 mètres d'altitude), hygrophile, qui affectionne les lieux humides, les bords des cours d'eau, les marécages, les fossés, etc. Elle est caractéristique de certaines formations comme les saulaies, peupleraies et les roselières. Elle prospère aussi bien en pleine lumière qu'en mi-ombre.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lycope_d%27Europe</t>
+          <t>Lycope_d'Europe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +632,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Couleur alternative</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est commune dans les régions tempérées et circumboréales d'Europe, d'Asie et d'Afrique du Nord. Elle s'est naturalisée en Amérique du Nord.
+C'est une espèce de plaine (jusqu'à 100 mètres d'altitude), hygrophile, qui affectionne les lieux humides, les bords des cours d'eau, les marécages, les fossés, etc. Elle est caractéristique de certaines formations comme les saulaies, peupleraies et les roselières. Elle prospère aussi bien en pleine lumière qu'en mi-ombre.
 </t>
         </is>
       </c>
@@ -626,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lycope_d%27Europe</t>
+          <t>Lycope_d'Europe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +666,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Couleur alternative</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lycope_d'Europe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycope_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce n'est pas cultivée. Elle aurait été employée en médecine populaire pour ses propriétés astringentes et fébrifuges.
 Peut être extraite de ses feuilles une teinture noire, autrefois utilisée par les vagabonds voulant se faire passer pour des Gitans pour se teindre la peau, d'où le nom anglais de la plante, gypsywort. Il serait plus vraisemblable que cette origine provienne du fait que les Roumains aient utilisé la plante comme teinture pour le lin.
